--- a/Automation/Brick/Brick_Data.xlsx
+++ b/Automation/Brick/Brick_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bssuniversal-my.sharepoint.com/personal/laraib_khalid_bssuniversal_com/Documents/Desktop/Laraib Data/SQA/Automation/SMARTCRM_Data_Driven_Testing/Automation/Brick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42722B5A-4C95-4A11-A56D-953C5F27EBC1}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10480271DD697A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F75A89-B9F3-43F1-8553-91B0936E7EE4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4710" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,19 +48,19 @@
     <t>${BRICK_NAME}</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>Test 5</t>
+    <t>Brick Test 1</t>
+  </si>
+  <si>
+    <t>Brick Test 2</t>
+  </si>
+  <si>
+    <t>Brick Test 3</t>
+  </si>
+  <si>
+    <t>Brick Test 4</t>
+  </si>
+  <si>
+    <t>Brick Test 5</t>
   </si>
 </sst>
 </file>
@@ -129,6 +129,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +401,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
